--- a/documents/for_import_tasks_excel_template.xlsx
+++ b/documents/for_import_tasks_excel_template.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GTMS\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B4D7FE-E28D-4219-8122-B12F183AA7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DF934277-3975-4664-8D7B-2EA4D090DF23}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +24,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Bobby John Solomon</author>
+    <author>Christian John Lopez</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{9B832F80-14AD-4099-AF3C-1151BF8EB803}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{9831C0DA-BA5D-4A33-A382-BBF2C1699F25}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{E4C83AB0-7E30-4FE1-A60E-CAAB2211DD3C}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -84,11 +84,29 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>FIRST LETTER OF FIRST NAME PLUS LAST NAME (e.g. BSOLOMON)</t>
+          <t>Username
+Example: BSOLOMON</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{04CCA075-6A93-42A1-B6A2-465E6E2317BE}">
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Task Class: 1 - Daily
+Task Class: 2 - Monday/Tuesday/Wednesday/Thursday/Friday/Saturday
+Task Class: 3 - 2nd week of Monday (1st/2nd/3rd/4th)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -98,7 +116,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Format: yyyy-mm-dd</t>
+          <t>1 - Required
+0 - Not Required</t>
         </r>
       </text>
     </comment>
@@ -107,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Task Name</t>
   </si>
@@ -121,26 +140,25 @@
     <t>In Charge</t>
   </si>
   <si>
-    <t>Due Date</t>
+    <t>Submission</t>
+  </si>
+  <si>
+    <t>Task Details</t>
+  </si>
+  <si>
+    <t>Attachment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -158,6 +176,32 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -180,11 +224,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,38 +558,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAEA0722-7D0C-4AA9-B0E8-E0373B8A9868}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>